--- a/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
@@ -20700,16 +20700,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -20725,6 +20715,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -20739,7 +20739,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2290" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2290" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G2290"/>
   <sortState ref="A2:G2294">
     <sortCondition ref="A2:A2294"/>
@@ -21023,8 +21023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2200" workbookViewId="0">
-      <selection activeCell="D2239" sqref="D2239"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
+      <selection activeCell="F1129" sqref="F1129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43594,7 +43594,7 @@
         <v>3018</v>
       </c>
       <c r="F1129" t="s">
-        <v>6699</v>
+        <v>0</v>
       </c>
       <c r="G1129" t="s">
         <v>6703</v>
@@ -66822,7 +66822,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14128" uniqueCount="7073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14131" uniqueCount="7074">
   <si>
     <t>Open</t>
   </si>
@@ -21238,6 +21238,9 @@
   </si>
   <si>
     <t>http://www.elsevier.com/locate/issn/1359-6349</t>
+  </si>
+  <si>
+    <t>https://www.journals.elsevier.com/european-economic-review-plus</t>
   </si>
 </sst>
 </file>
@@ -21291,6 +21294,23 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -21309,23 +21329,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -21340,7 +21343,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2355" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2355" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G2355"/>
   <sortState ref="A2:G2355">
     <sortCondition ref="D1:D2355"/>
@@ -36249,6 +36252,12 @@
       <c r="D731" t="s">
         <v>6225</v>
       </c>
+      <c r="E731" t="s">
+        <v>7073</v>
+      </c>
+      <c r="F731" t="s">
+        <v>0</v>
+      </c>
       <c r="G731" t="s">
         <v>6502</v>
       </c>
@@ -41806,6 +41815,9 @@
       <c r="E1009" t="s">
         <v>6269</v>
       </c>
+      <c r="F1009" t="s">
+        <v>0</v>
+      </c>
       <c r="G1009" t="s">
         <v>6502</v>
       </c>
@@ -68732,10 +68744,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2313:B2350">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_elsevier.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_482932F307E62CA738320DE4EF874F40636153AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4272ADC1-445E-481A-BF24-7AB33E9BEB5D}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_482932F307E62CA738320DE4EF874F40636153AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BDE0AC-DF47-4823-A493-1CA8AFBD1339}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22721,9 +22721,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23029,8 +23028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9152398C-5AA4-4EDF-8332-2FDDCADA2874}">
   <dimension ref="A1:G2531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L1082" sqref="L1082"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44557,11 +44556,11 @@
       <c r="D1076" t="s">
         <v>6741</v>
       </c>
-      <c r="E1076" s="1" t="s">
+      <c r="E1076" t="s">
         <v>6742</v>
       </c>
       <c r="F1076" t="s">
-        <v>5338</v>
+        <v>0</v>
       </c>
       <c r="G1076" t="s">
         <v>6185</v>
